--- a/YSteam開発資料まとめ/設計書9日までに/products/DB設計書_ヨウグン.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/DB設計書_ヨウグン.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\it研修学习期间的成果\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42734397-06E9-453C-BD64-30EFF68A9E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF487BA5-D390-43C4-9BB5-8013B8E1AE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2028" windowWidth="18636" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.テーブル一覧" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
   <si>
     <t>システム名</t>
   </si>
@@ -343,10 +343,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>すべての問題と答案</t>
     <rPh sb="4" eb="6">
       <t>モンダイ</t>
@@ -549,7 +545,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -867,12 +863,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1013,17 +1046,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1032,6 +1062,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1061,7 +1103,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3828,7 +3870,7 @@
       <c r="AQ6" s="37"/>
       <c r="AR6" s="37"/>
       <c r="AS6" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AT6" s="38"/>
       <c r="AU6" s="38"/>
@@ -6045,8 +6087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5:AR5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7:AR7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -8285,11 +8327,11 @@
       <c r="AZ4" s="42"/>
       <c r="BA4" s="42"/>
       <c r="BB4" s="42"/>
-      <c r="BC4" s="50" t="s">
+      <c r="BC4" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="BD4" s="50"/>
-      <c r="BE4" s="50"/>
+      <c r="BD4" s="48"/>
+      <c r="BE4" s="48"/>
       <c r="BF4" s="42" t="s">
         <v>15</v>
       </c>
@@ -8373,25 +8415,25 @@
       <c r="AP5" s="45"/>
       <c r="AQ5" s="45"/>
       <c r="AR5" s="45"/>
-      <c r="AS5" s="51" t="s">
+      <c r="AS5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AT5" s="51"/>
-      <c r="AU5" s="51"/>
-      <c r="AV5" s="45" t="s">
+      <c r="AT5" s="57"/>
+      <c r="AU5" s="57"/>
+      <c r="AV5" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="45"/>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="52">
+      <c r="AW5" s="55"/>
+      <c r="AX5" s="55"/>
+      <c r="AY5" s="55"/>
+      <c r="AZ5" s="55"/>
+      <c r="BA5" s="55"/>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="51">
         <v>10</v>
       </c>
-      <c r="BD5" s="52"/>
-      <c r="BE5" s="52"/>
+      <c r="BD5" s="51"/>
+      <c r="BE5" s="51"/>
       <c r="BF5" s="45" t="s">
         <v>43</v>
       </c>
@@ -8423,7 +8465,7 @@
       <c r="CF5" s="45"/>
       <c r="CG5" s="45"/>
       <c r="CH5" s="45"/>
-      <c r="CI5" s="53"/>
+      <c r="CI5" s="52"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1">
       <c r="B6" s="43">
@@ -8432,7 +8474,7 @@
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
       <c r="E6" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="45"/>
@@ -8453,47 +8495,47 @@
       <c r="V6" s="45"/>
       <c r="W6" s="45"/>
       <c r="X6" s="45"/>
-      <c r="Y6" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="49"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="49"/>
-      <c r="AM6" s="49"/>
-      <c r="AN6" s="49"/>
-      <c r="AO6" s="49"/>
-      <c r="AP6" s="49"/>
-      <c r="AQ6" s="49"/>
-      <c r="AR6" s="49"/>
-      <c r="AS6" s="48"/>
-      <c r="AT6" s="48"/>
-      <c r="AU6" s="48"/>
-      <c r="AV6" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW6" s="49"/>
-      <c r="AX6" s="49"/>
-      <c r="AY6" s="49"/>
-      <c r="AZ6" s="49"/>
-      <c r="BA6" s="49"/>
-      <c r="BB6" s="49"/>
-      <c r="BC6" s="54">
+      <c r="Y6" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="50"/>
+      <c r="AJ6" s="50"/>
+      <c r="AK6" s="50"/>
+      <c r="AL6" s="50"/>
+      <c r="AM6" s="50"/>
+      <c r="AN6" s="50"/>
+      <c r="AO6" s="50"/>
+      <c r="AP6" s="50"/>
+      <c r="AQ6" s="50"/>
+      <c r="AR6" s="50"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="49"/>
+      <c r="AV6" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW6" s="45"/>
+      <c r="AX6" s="45"/>
+      <c r="AY6" s="45"/>
+      <c r="AZ6" s="45"/>
+      <c r="BA6" s="45"/>
+      <c r="BB6" s="45"/>
+      <c r="BC6" s="53">
         <v>10</v>
       </c>
-      <c r="BD6" s="54"/>
-      <c r="BE6" s="54"/>
+      <c r="BD6" s="53"/>
+      <c r="BE6" s="53"/>
       <c r="BF6" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BG6" s="45"/>
       <c r="BH6" s="45"/>
@@ -8523,7 +8565,7 @@
       <c r="CF6" s="45"/>
       <c r="CG6" s="45"/>
       <c r="CH6" s="45"/>
-      <c r="CI6" s="53"/>
+      <c r="CI6" s="52"/>
     </row>
     <row r="7" spans="1:1024" ht="18" customHeight="1">
       <c r="B7" s="43">
@@ -8571,9 +8613,9 @@
       <c r="AP7" s="45"/>
       <c r="AQ7" s="45"/>
       <c r="AR7" s="45"/>
-      <c r="AS7" s="48"/>
-      <c r="AT7" s="48"/>
-      <c r="AU7" s="48"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
       <c r="AV7" s="45"/>
       <c r="AW7" s="45"/>
       <c r="AX7" s="45"/>
@@ -8581,9 +8623,9 @@
       <c r="AZ7" s="45"/>
       <c r="BA7" s="45"/>
       <c r="BB7" s="45"/>
-      <c r="BC7" s="52"/>
-      <c r="BD7" s="52"/>
-      <c r="BE7" s="52"/>
+      <c r="BC7" s="51"/>
+      <c r="BD7" s="51"/>
+      <c r="BE7" s="51"/>
       <c r="BF7" s="45"/>
       <c r="BG7" s="45"/>
       <c r="BH7" s="45"/>
@@ -8613,7 +8655,7 @@
       <c r="CF7" s="45"/>
       <c r="CG7" s="45"/>
       <c r="CH7" s="45"/>
-      <c r="CI7" s="53"/>
+      <c r="CI7" s="52"/>
     </row>
     <row r="8" spans="1:1024" ht="18" customHeight="1">
       <c r="B8" s="43">
@@ -8661,9 +8703,9 @@
       <c r="AP8" s="45"/>
       <c r="AQ8" s="45"/>
       <c r="AR8" s="45"/>
-      <c r="AS8" s="48"/>
-      <c r="AT8" s="48"/>
-      <c r="AU8" s="48"/>
+      <c r="AS8" s="49"/>
+      <c r="AT8" s="49"/>
+      <c r="AU8" s="49"/>
       <c r="AV8" s="45"/>
       <c r="AW8" s="45"/>
       <c r="AX8" s="45"/>
@@ -8671,9 +8713,9 @@
       <c r="AZ8" s="45"/>
       <c r="BA8" s="45"/>
       <c r="BB8" s="45"/>
-      <c r="BC8" s="52"/>
-      <c r="BD8" s="52"/>
-      <c r="BE8" s="52"/>
+      <c r="BC8" s="51"/>
+      <c r="BD8" s="51"/>
+      <c r="BE8" s="51"/>
       <c r="BF8" s="45"/>
       <c r="BG8" s="45"/>
       <c r="BH8" s="45"/>
@@ -8703,7 +8745,7 @@
       <c r="CF8" s="45"/>
       <c r="CG8" s="45"/>
       <c r="CH8" s="45"/>
-      <c r="CI8" s="53"/>
+      <c r="CI8" s="52"/>
     </row>
     <row r="9" spans="1:1024" ht="18" customHeight="1">
       <c r="B9" s="43">
@@ -8751,9 +8793,9 @@
       <c r="AP9" s="45"/>
       <c r="AQ9" s="45"/>
       <c r="AR9" s="45"/>
-      <c r="AS9" s="48"/>
-      <c r="AT9" s="48"/>
-      <c r="AU9" s="48"/>
+      <c r="AS9" s="49"/>
+      <c r="AT9" s="49"/>
+      <c r="AU9" s="49"/>
       <c r="AV9" s="45"/>
       <c r="AW9" s="45"/>
       <c r="AX9" s="45"/>
@@ -8761,9 +8803,9 @@
       <c r="AZ9" s="45"/>
       <c r="BA9" s="45"/>
       <c r="BB9" s="45"/>
-      <c r="BC9" s="52"/>
-      <c r="BD9" s="52"/>
-      <c r="BE9" s="52"/>
+      <c r="BC9" s="51"/>
+      <c r="BD9" s="51"/>
+      <c r="BE9" s="51"/>
       <c r="BF9" s="45"/>
       <c r="BG9" s="45"/>
       <c r="BH9" s="45"/>
@@ -8793,7 +8835,7 @@
       <c r="CF9" s="45"/>
       <c r="CG9" s="45"/>
       <c r="CH9" s="45"/>
-      <c r="CI9" s="53"/>
+      <c r="CI9" s="52"/>
     </row>
     <row r="10" spans="1:1024" ht="18" customHeight="1">
       <c r="B10" s="43">
@@ -8841,9 +8883,9 @@
       <c r="AP10" s="45"/>
       <c r="AQ10" s="45"/>
       <c r="AR10" s="45"/>
-      <c r="AS10" s="48"/>
-      <c r="AT10" s="48"/>
-      <c r="AU10" s="48"/>
+      <c r="AS10" s="49"/>
+      <c r="AT10" s="49"/>
+      <c r="AU10" s="49"/>
       <c r="AV10" s="45"/>
       <c r="AW10" s="45"/>
       <c r="AX10" s="45"/>
@@ -8851,9 +8893,9 @@
       <c r="AZ10" s="45"/>
       <c r="BA10" s="45"/>
       <c r="BB10" s="45"/>
-      <c r="BC10" s="52"/>
-      <c r="BD10" s="52"/>
-      <c r="BE10" s="52"/>
+      <c r="BC10" s="51"/>
+      <c r="BD10" s="51"/>
+      <c r="BE10" s="51"/>
       <c r="BF10" s="45"/>
       <c r="BG10" s="45"/>
       <c r="BH10" s="45"/>
@@ -8883,7 +8925,7 @@
       <c r="CF10" s="45"/>
       <c r="CG10" s="45"/>
       <c r="CH10" s="45"/>
-      <c r="CI10" s="53"/>
+      <c r="CI10" s="52"/>
     </row>
     <row r="11" spans="1:1024" ht="18" customHeight="1">
       <c r="B11" s="43">
@@ -8931,9 +8973,9 @@
       <c r="AP11" s="45"/>
       <c r="AQ11" s="45"/>
       <c r="AR11" s="45"/>
-      <c r="AS11" s="48"/>
-      <c r="AT11" s="48"/>
-      <c r="AU11" s="48"/>
+      <c r="AS11" s="49"/>
+      <c r="AT11" s="49"/>
+      <c r="AU11" s="49"/>
       <c r="AV11" s="45"/>
       <c r="AW11" s="45"/>
       <c r="AX11" s="45"/>
@@ -8941,9 +8983,9 @@
       <c r="AZ11" s="45"/>
       <c r="BA11" s="45"/>
       <c r="BB11" s="45"/>
-      <c r="BC11" s="52"/>
-      <c r="BD11" s="52"/>
-      <c r="BE11" s="52"/>
+      <c r="BC11" s="51"/>
+      <c r="BD11" s="51"/>
+      <c r="BE11" s="51"/>
       <c r="BF11" s="45"/>
       <c r="BG11" s="45"/>
       <c r="BH11" s="45"/>
@@ -8973,7 +9015,7 @@
       <c r="CF11" s="45"/>
       <c r="CG11" s="45"/>
       <c r="CH11" s="45"/>
-      <c r="CI11" s="53"/>
+      <c r="CI11" s="52"/>
     </row>
     <row r="12" spans="1:1024" ht="18" customHeight="1">
       <c r="B12" s="43">
@@ -9021,9 +9063,9 @@
       <c r="AP12" s="45"/>
       <c r="AQ12" s="45"/>
       <c r="AR12" s="45"/>
-      <c r="AS12" s="48"/>
-      <c r="AT12" s="48"/>
-      <c r="AU12" s="48"/>
+      <c r="AS12" s="49"/>
+      <c r="AT12" s="49"/>
+      <c r="AU12" s="49"/>
       <c r="AV12" s="45"/>
       <c r="AW12" s="45"/>
       <c r="AX12" s="45"/>
@@ -9031,9 +9073,9 @@
       <c r="AZ12" s="45"/>
       <c r="BA12" s="45"/>
       <c r="BB12" s="45"/>
-      <c r="BC12" s="52"/>
-      <c r="BD12" s="52"/>
-      <c r="BE12" s="52"/>
+      <c r="BC12" s="51"/>
+      <c r="BD12" s="51"/>
+      <c r="BE12" s="51"/>
       <c r="BF12" s="45"/>
       <c r="BG12" s="45"/>
       <c r="BH12" s="45"/>
@@ -9063,7 +9105,7 @@
       <c r="CF12" s="45"/>
       <c r="CG12" s="45"/>
       <c r="CH12" s="45"/>
-      <c r="CI12" s="53"/>
+      <c r="CI12" s="52"/>
     </row>
     <row r="13" spans="1:1024" ht="18" customHeight="1">
       <c r="B13" s="43">
@@ -9111,9 +9153,9 @@
       <c r="AP13" s="45"/>
       <c r="AQ13" s="45"/>
       <c r="AR13" s="45"/>
-      <c r="AS13" s="48"/>
-      <c r="AT13" s="48"/>
-      <c r="AU13" s="48"/>
+      <c r="AS13" s="49"/>
+      <c r="AT13" s="49"/>
+      <c r="AU13" s="49"/>
       <c r="AV13" s="45"/>
       <c r="AW13" s="45"/>
       <c r="AX13" s="45"/>
@@ -9121,9 +9163,9 @@
       <c r="AZ13" s="45"/>
       <c r="BA13" s="45"/>
       <c r="BB13" s="45"/>
-      <c r="BC13" s="52"/>
-      <c r="BD13" s="52"/>
-      <c r="BE13" s="52"/>
+      <c r="BC13" s="51"/>
+      <c r="BD13" s="51"/>
+      <c r="BE13" s="51"/>
       <c r="BF13" s="45"/>
       <c r="BG13" s="45"/>
       <c r="BH13" s="45"/>
@@ -9153,7 +9195,7 @@
       <c r="CF13" s="45"/>
       <c r="CG13" s="45"/>
       <c r="CH13" s="45"/>
-      <c r="CI13" s="53"/>
+      <c r="CI13" s="52"/>
     </row>
     <row r="14" spans="1:1024" ht="18" customHeight="1">
       <c r="B14" s="43">
@@ -9201,9 +9243,9 @@
       <c r="AP14" s="45"/>
       <c r="AQ14" s="45"/>
       <c r="AR14" s="45"/>
-      <c r="AS14" s="48"/>
-      <c r="AT14" s="48"/>
-      <c r="AU14" s="48"/>
+      <c r="AS14" s="49"/>
+      <c r="AT14" s="49"/>
+      <c r="AU14" s="49"/>
       <c r="AV14" s="45"/>
       <c r="AW14" s="45"/>
       <c r="AX14" s="45"/>
@@ -9211,9 +9253,9 @@
       <c r="AZ14" s="45"/>
       <c r="BA14" s="45"/>
       <c r="BB14" s="45"/>
-      <c r="BC14" s="52"/>
-      <c r="BD14" s="52"/>
-      <c r="BE14" s="52"/>
+      <c r="BC14" s="51"/>
+      <c r="BD14" s="51"/>
+      <c r="BE14" s="51"/>
       <c r="BF14" s="45"/>
       <c r="BG14" s="45"/>
       <c r="BH14" s="45"/>
@@ -9243,7 +9285,7 @@
       <c r="CF14" s="45"/>
       <c r="CG14" s="45"/>
       <c r="CH14" s="45"/>
-      <c r="CI14" s="53"/>
+      <c r="CI14" s="52"/>
     </row>
     <row r="15" spans="1:1024" ht="18" customHeight="1">
       <c r="B15" s="43">
@@ -9291,9 +9333,9 @@
       <c r="AP15" s="45"/>
       <c r="AQ15" s="45"/>
       <c r="AR15" s="45"/>
-      <c r="AS15" s="48"/>
-      <c r="AT15" s="48"/>
-      <c r="AU15" s="48"/>
+      <c r="AS15" s="49"/>
+      <c r="AT15" s="49"/>
+      <c r="AU15" s="49"/>
       <c r="AV15" s="45"/>
       <c r="AW15" s="45"/>
       <c r="AX15" s="45"/>
@@ -9301,9 +9343,9 @@
       <c r="AZ15" s="45"/>
       <c r="BA15" s="45"/>
       <c r="BB15" s="45"/>
-      <c r="BC15" s="52"/>
-      <c r="BD15" s="52"/>
-      <c r="BE15" s="52"/>
+      <c r="BC15" s="51"/>
+      <c r="BD15" s="51"/>
+      <c r="BE15" s="51"/>
       <c r="BF15" s="45"/>
       <c r="BG15" s="45"/>
       <c r="BH15" s="45"/>
@@ -9333,7 +9375,7 @@
       <c r="CF15" s="45"/>
       <c r="CG15" s="45"/>
       <c r="CH15" s="45"/>
-      <c r="CI15" s="53"/>
+      <c r="CI15" s="52"/>
     </row>
     <row r="16" spans="1:1024" ht="18" customHeight="1">
       <c r="B16" s="43">
@@ -9381,9 +9423,9 @@
       <c r="AP16" s="45"/>
       <c r="AQ16" s="45"/>
       <c r="AR16" s="45"/>
-      <c r="AS16" s="48"/>
-      <c r="AT16" s="48"/>
-      <c r="AU16" s="48"/>
+      <c r="AS16" s="49"/>
+      <c r="AT16" s="49"/>
+      <c r="AU16" s="49"/>
       <c r="AV16" s="45"/>
       <c r="AW16" s="45"/>
       <c r="AX16" s="45"/>
@@ -9391,9 +9433,9 @@
       <c r="AZ16" s="45"/>
       <c r="BA16" s="45"/>
       <c r="BB16" s="45"/>
-      <c r="BC16" s="52"/>
-      <c r="BD16" s="52"/>
-      <c r="BE16" s="52"/>
+      <c r="BC16" s="51"/>
+      <c r="BD16" s="51"/>
+      <c r="BE16" s="51"/>
       <c r="BF16" s="45"/>
       <c r="BG16" s="45"/>
       <c r="BH16" s="45"/>
@@ -9423,7 +9465,7 @@
       <c r="CF16" s="45"/>
       <c r="CG16" s="45"/>
       <c r="CH16" s="45"/>
-      <c r="CI16" s="53"/>
+      <c r="CI16" s="52"/>
     </row>
     <row r="17" spans="2:87" ht="18" customHeight="1">
       <c r="B17" s="43">
@@ -9471,9 +9513,9 @@
       <c r="AP17" s="45"/>
       <c r="AQ17" s="45"/>
       <c r="AR17" s="45"/>
-      <c r="AS17" s="48"/>
-      <c r="AT17" s="48"/>
-      <c r="AU17" s="48"/>
+      <c r="AS17" s="49"/>
+      <c r="AT17" s="49"/>
+      <c r="AU17" s="49"/>
       <c r="AV17" s="45"/>
       <c r="AW17" s="45"/>
       <c r="AX17" s="45"/>
@@ -9481,9 +9523,9 @@
       <c r="AZ17" s="45"/>
       <c r="BA17" s="45"/>
       <c r="BB17" s="45"/>
-      <c r="BC17" s="52"/>
-      <c r="BD17" s="52"/>
-      <c r="BE17" s="52"/>
+      <c r="BC17" s="51"/>
+      <c r="BD17" s="51"/>
+      <c r="BE17" s="51"/>
       <c r="BF17" s="45"/>
       <c r="BG17" s="45"/>
       <c r="BH17" s="45"/>
@@ -9513,7 +9555,7 @@
       <c r="CF17" s="45"/>
       <c r="CG17" s="45"/>
       <c r="CH17" s="45"/>
-      <c r="CI17" s="53"/>
+      <c r="CI17" s="52"/>
     </row>
     <row r="18" spans="2:87" ht="18" customHeight="1">
       <c r="B18" s="43">
@@ -9561,9 +9603,9 @@
       <c r="AP18" s="45"/>
       <c r="AQ18" s="45"/>
       <c r="AR18" s="45"/>
-      <c r="AS18" s="48"/>
-      <c r="AT18" s="48"/>
-      <c r="AU18" s="48"/>
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="49"/>
+      <c r="AU18" s="49"/>
       <c r="AV18" s="45"/>
       <c r="AW18" s="45"/>
       <c r="AX18" s="45"/>
@@ -9571,9 +9613,9 @@
       <c r="AZ18" s="45"/>
       <c r="BA18" s="45"/>
       <c r="BB18" s="45"/>
-      <c r="BC18" s="52"/>
-      <c r="BD18" s="52"/>
-      <c r="BE18" s="52"/>
+      <c r="BC18" s="51"/>
+      <c r="BD18" s="51"/>
+      <c r="BE18" s="51"/>
       <c r="BF18" s="45"/>
       <c r="BG18" s="45"/>
       <c r="BH18" s="45"/>
@@ -9603,7 +9645,7 @@
       <c r="CF18" s="45"/>
       <c r="CG18" s="45"/>
       <c r="CH18" s="45"/>
-      <c r="CI18" s="53"/>
+      <c r="CI18" s="52"/>
     </row>
     <row r="19" spans="2:87" ht="18" customHeight="1">
       <c r="B19" s="43">
@@ -9651,9 +9693,9 @@
       <c r="AP19" s="45"/>
       <c r="AQ19" s="45"/>
       <c r="AR19" s="45"/>
-      <c r="AS19" s="48"/>
-      <c r="AT19" s="48"/>
-      <c r="AU19" s="48"/>
+      <c r="AS19" s="49"/>
+      <c r="AT19" s="49"/>
+      <c r="AU19" s="49"/>
       <c r="AV19" s="45"/>
       <c r="AW19" s="45"/>
       <c r="AX19" s="45"/>
@@ -9661,9 +9703,9 @@
       <c r="AZ19" s="45"/>
       <c r="BA19" s="45"/>
       <c r="BB19" s="45"/>
-      <c r="BC19" s="52"/>
-      <c r="BD19" s="52"/>
-      <c r="BE19" s="52"/>
+      <c r="BC19" s="51"/>
+      <c r="BD19" s="51"/>
+      <c r="BE19" s="51"/>
       <c r="BF19" s="45"/>
       <c r="BG19" s="45"/>
       <c r="BH19" s="45"/>
@@ -9693,7 +9735,7 @@
       <c r="CF19" s="45"/>
       <c r="CG19" s="45"/>
       <c r="CH19" s="45"/>
-      <c r="CI19" s="53"/>
+      <c r="CI19" s="52"/>
     </row>
     <row r="20" spans="2:87" ht="18" customHeight="1">
       <c r="B20" s="43">
@@ -9741,9 +9783,9 @@
       <c r="AP20" s="45"/>
       <c r="AQ20" s="45"/>
       <c r="AR20" s="45"/>
-      <c r="AS20" s="48"/>
-      <c r="AT20" s="48"/>
-      <c r="AU20" s="48"/>
+      <c r="AS20" s="49"/>
+      <c r="AT20" s="49"/>
+      <c r="AU20" s="49"/>
       <c r="AV20" s="45"/>
       <c r="AW20" s="45"/>
       <c r="AX20" s="45"/>
@@ -9751,9 +9793,9 @@
       <c r="AZ20" s="45"/>
       <c r="BA20" s="45"/>
       <c r="BB20" s="45"/>
-      <c r="BC20" s="52"/>
-      <c r="BD20" s="52"/>
-      <c r="BE20" s="52"/>
+      <c r="BC20" s="51"/>
+      <c r="BD20" s="51"/>
+      <c r="BE20" s="51"/>
       <c r="BF20" s="45"/>
       <c r="BG20" s="45"/>
       <c r="BH20" s="45"/>
@@ -9783,7 +9825,7 @@
       <c r="CF20" s="45"/>
       <c r="CG20" s="45"/>
       <c r="CH20" s="45"/>
-      <c r="CI20" s="53"/>
+      <c r="CI20" s="52"/>
     </row>
     <row r="21" spans="2:87" ht="18" customHeight="1">
       <c r="B21" s="43">
@@ -9831,9 +9873,9 @@
       <c r="AP21" s="45"/>
       <c r="AQ21" s="45"/>
       <c r="AR21" s="45"/>
-      <c r="AS21" s="48"/>
-      <c r="AT21" s="48"/>
-      <c r="AU21" s="48"/>
+      <c r="AS21" s="49"/>
+      <c r="AT21" s="49"/>
+      <c r="AU21" s="49"/>
       <c r="AV21" s="45"/>
       <c r="AW21" s="45"/>
       <c r="AX21" s="45"/>
@@ -9841,9 +9883,9 @@
       <c r="AZ21" s="45"/>
       <c r="BA21" s="45"/>
       <c r="BB21" s="45"/>
-      <c r="BC21" s="52"/>
-      <c r="BD21" s="52"/>
-      <c r="BE21" s="52"/>
+      <c r="BC21" s="51"/>
+      <c r="BD21" s="51"/>
+      <c r="BE21" s="51"/>
       <c r="BF21" s="45"/>
       <c r="BG21" s="45"/>
       <c r="BH21" s="45"/>
@@ -9873,7 +9915,7 @@
       <c r="CF21" s="45"/>
       <c r="CG21" s="45"/>
       <c r="CH21" s="45"/>
-      <c r="CI21" s="53"/>
+      <c r="CI21" s="52"/>
     </row>
     <row r="22" spans="2:87" ht="18" customHeight="1">
       <c r="B22" s="43">
@@ -9921,9 +9963,9 @@
       <c r="AP22" s="45"/>
       <c r="AQ22" s="45"/>
       <c r="AR22" s="45"/>
-      <c r="AS22" s="48"/>
-      <c r="AT22" s="48"/>
-      <c r="AU22" s="48"/>
+      <c r="AS22" s="49"/>
+      <c r="AT22" s="49"/>
+      <c r="AU22" s="49"/>
       <c r="AV22" s="45"/>
       <c r="AW22" s="45"/>
       <c r="AX22" s="45"/>
@@ -9931,9 +9973,9 @@
       <c r="AZ22" s="45"/>
       <c r="BA22" s="45"/>
       <c r="BB22" s="45"/>
-      <c r="BC22" s="52"/>
-      <c r="BD22" s="52"/>
-      <c r="BE22" s="52"/>
+      <c r="BC22" s="51"/>
+      <c r="BD22" s="51"/>
+      <c r="BE22" s="51"/>
       <c r="BF22" s="45"/>
       <c r="BG22" s="45"/>
       <c r="BH22" s="45"/>
@@ -9963,7 +10005,7 @@
       <c r="CF22" s="45"/>
       <c r="CG22" s="45"/>
       <c r="CH22" s="45"/>
-      <c r="CI22" s="53"/>
+      <c r="CI22" s="52"/>
     </row>
     <row r="23" spans="2:87" ht="18" customHeight="1" thickBot="1">
       <c r="B23" s="43">
@@ -9971,89 +10013,89 @@
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="56"/>
-      <c r="AF23" s="56"/>
-      <c r="AG23" s="56"/>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="56"/>
-      <c r="AJ23" s="56"/>
-      <c r="AK23" s="56"/>
-      <c r="AL23" s="56"/>
-      <c r="AM23" s="56"/>
-      <c r="AN23" s="56"/>
-      <c r="AO23" s="56"/>
-      <c r="AP23" s="56"/>
-      <c r="AQ23" s="56"/>
-      <c r="AR23" s="56"/>
-      <c r="AS23" s="55"/>
-      <c r="AT23" s="55"/>
-      <c r="AU23" s="55"/>
-      <c r="AV23" s="56"/>
-      <c r="AW23" s="56"/>
-      <c r="AX23" s="56"/>
-      <c r="AY23" s="56"/>
-      <c r="AZ23" s="56"/>
-      <c r="BA23" s="56"/>
-      <c r="BB23" s="56"/>
-      <c r="BC23" s="57"/>
-      <c r="BD23" s="57"/>
-      <c r="BE23" s="57"/>
-      <c r="BF23" s="56"/>
-      <c r="BG23" s="56"/>
-      <c r="BH23" s="56"/>
-      <c r="BI23" s="56"/>
-      <c r="BJ23" s="56"/>
-      <c r="BK23" s="56"/>
-      <c r="BL23" s="56"/>
-      <c r="BM23" s="56"/>
-      <c r="BN23" s="56"/>
-      <c r="BO23" s="56"/>
-      <c r="BP23" s="56"/>
-      <c r="BQ23" s="56"/>
-      <c r="BR23" s="56"/>
-      <c r="BS23" s="56"/>
-      <c r="BT23" s="56"/>
-      <c r="BU23" s="56"/>
-      <c r="BV23" s="56"/>
-      <c r="BW23" s="56"/>
-      <c r="BX23" s="56"/>
-      <c r="BY23" s="56"/>
-      <c r="BZ23" s="56"/>
-      <c r="CA23" s="56"/>
-      <c r="CB23" s="56"/>
-      <c r="CC23" s="56"/>
-      <c r="CD23" s="56"/>
-      <c r="CE23" s="56"/>
-      <c r="CF23" s="56"/>
-      <c r="CG23" s="56"/>
-      <c r="CH23" s="56"/>
-      <c r="CI23" s="58"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="59"/>
+      <c r="AG23" s="59"/>
+      <c r="AH23" s="59"/>
+      <c r="AI23" s="59"/>
+      <c r="AJ23" s="59"/>
+      <c r="AK23" s="59"/>
+      <c r="AL23" s="59"/>
+      <c r="AM23" s="59"/>
+      <c r="AN23" s="59"/>
+      <c r="AO23" s="59"/>
+      <c r="AP23" s="59"/>
+      <c r="AQ23" s="59"/>
+      <c r="AR23" s="59"/>
+      <c r="AS23" s="58"/>
+      <c r="AT23" s="58"/>
+      <c r="AU23" s="58"/>
+      <c r="AV23" s="59"/>
+      <c r="AW23" s="59"/>
+      <c r="AX23" s="59"/>
+      <c r="AY23" s="59"/>
+      <c r="AZ23" s="59"/>
+      <c r="BA23" s="59"/>
+      <c r="BB23" s="59"/>
+      <c r="BC23" s="60"/>
+      <c r="BD23" s="60"/>
+      <c r="BE23" s="60"/>
+      <c r="BF23" s="59"/>
+      <c r="BG23" s="59"/>
+      <c r="BH23" s="59"/>
+      <c r="BI23" s="59"/>
+      <c r="BJ23" s="59"/>
+      <c r="BK23" s="59"/>
+      <c r="BL23" s="59"/>
+      <c r="BM23" s="59"/>
+      <c r="BN23" s="59"/>
+      <c r="BO23" s="59"/>
+      <c r="BP23" s="59"/>
+      <c r="BQ23" s="59"/>
+      <c r="BR23" s="59"/>
+      <c r="BS23" s="59"/>
+      <c r="BT23" s="59"/>
+      <c r="BU23" s="59"/>
+      <c r="BV23" s="59"/>
+      <c r="BW23" s="59"/>
+      <c r="BX23" s="59"/>
+      <c r="BY23" s="59"/>
+      <c r="BZ23" s="59"/>
+      <c r="CA23" s="59"/>
+      <c r="CB23" s="59"/>
+      <c r="CC23" s="59"/>
+      <c r="CD23" s="59"/>
+      <c r="CE23" s="59"/>
+      <c r="CF23" s="59"/>
+      <c r="CG23" s="59"/>
+      <c r="CH23" s="59"/>
+      <c r="CI23" s="61"/>
     </row>
     <row r="24" spans="2:87" ht="18" customHeight="1">
       <c r="B24" s="33" t="s">
@@ -10600,6 +10642,14 @@
     <mergeCell ref="BF22:CI22"/>
     <mergeCell ref="E23:X23"/>
     <mergeCell ref="Y23:AR23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AR21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AR22"/>
+    <mergeCell ref="AS21:AU21"/>
+    <mergeCell ref="AV21:BB21"/>
     <mergeCell ref="BC19:BE19"/>
     <mergeCell ref="BF19:CI19"/>
     <mergeCell ref="AS20:AU20"/>
@@ -10650,14 +10700,6 @@
     <mergeCell ref="AV5:BB5"/>
     <mergeCell ref="BC5:BE5"/>
     <mergeCell ref="AS5:AU5"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AR21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AR22"/>
-    <mergeCell ref="AS21:AU21"/>
-    <mergeCell ref="AV21:BB21"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E19:X19"/>
     <mergeCell ref="Y19:AR19"/>
@@ -10757,7 +10799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716128AF-9BA8-4789-ACAB-31522F27DB4A}">
   <dimension ref="A1:AMK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y11" sqref="Y11:AR11"/>
     </sheetView>
   </sheetViews>
@@ -12998,11 +13040,11 @@
       <c r="AZ4" s="42"/>
       <c r="BA4" s="42"/>
       <c r="BB4" s="42"/>
-      <c r="BC4" s="50" t="s">
+      <c r="BC4" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="BD4" s="50"/>
-      <c r="BE4" s="50"/>
+      <c r="BD4" s="48"/>
+      <c r="BE4" s="48"/>
       <c r="BF4" s="42" t="s">
         <v>15</v>
       </c>
@@ -13086,11 +13128,11 @@
       <c r="AP5" s="45"/>
       <c r="AQ5" s="45"/>
       <c r="AR5" s="45"/>
-      <c r="AS5" s="51" t="s">
+      <c r="AS5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AT5" s="51"/>
-      <c r="AU5" s="51"/>
+      <c r="AT5" s="57"/>
+      <c r="AU5" s="57"/>
       <c r="AV5" s="45" t="s">
         <v>20</v>
       </c>
@@ -13100,11 +13142,11 @@
       <c r="AZ5" s="45"/>
       <c r="BA5" s="45"/>
       <c r="BB5" s="45"/>
-      <c r="BC5" s="52">
+      <c r="BC5" s="51">
         <v>10</v>
       </c>
-      <c r="BD5" s="52"/>
-      <c r="BE5" s="52"/>
+      <c r="BD5" s="51"/>
+      <c r="BE5" s="51"/>
       <c r="BF5" s="45" t="s">
         <v>42</v>
       </c>
@@ -13136,7 +13178,7 @@
       <c r="CF5" s="45"/>
       <c r="CG5" s="45"/>
       <c r="CH5" s="45"/>
-      <c r="CI5" s="53"/>
+      <c r="CI5" s="52"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1">
       <c r="B6" s="43">
@@ -13188,9 +13230,9 @@
       <c r="AP6" s="45"/>
       <c r="AQ6" s="45"/>
       <c r="AR6" s="45"/>
-      <c r="AS6" s="51"/>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="51"/>
+      <c r="AS6" s="57"/>
+      <c r="AT6" s="57"/>
+      <c r="AU6" s="57"/>
       <c r="AV6" s="45" t="s">
         <v>20</v>
       </c>
@@ -13200,11 +13242,11 @@
       <c r="AZ6" s="45"/>
       <c r="BA6" s="45"/>
       <c r="BB6" s="45"/>
-      <c r="BC6" s="52">
+      <c r="BC6" s="51">
         <v>200</v>
       </c>
-      <c r="BD6" s="52"/>
-      <c r="BE6" s="52"/>
+      <c r="BD6" s="51"/>
+      <c r="BE6" s="51"/>
       <c r="BF6" s="45" t="s">
         <v>29</v>
       </c>
@@ -13236,7 +13278,7 @@
       <c r="CF6" s="45"/>
       <c r="CG6" s="45"/>
       <c r="CH6" s="45"/>
-      <c r="CI6" s="53"/>
+      <c r="CI6" s="52"/>
     </row>
     <row r="7" spans="1:1024" ht="18" customHeight="1">
       <c r="B7" s="43">
@@ -13266,31 +13308,31 @@
       <c r="V7" s="45"/>
       <c r="W7" s="45"/>
       <c r="X7" s="45"/>
-      <c r="Y7" s="59" t="s">
+      <c r="Y7" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="49"/>
-      <c r="AI7" s="49"/>
-      <c r="AJ7" s="49"/>
-      <c r="AK7" s="49"/>
-      <c r="AL7" s="49"/>
-      <c r="AM7" s="49"/>
-      <c r="AN7" s="49"/>
-      <c r="AO7" s="49"/>
-      <c r="AP7" s="49"/>
-      <c r="AQ7" s="49"/>
-      <c r="AR7" s="49"/>
-      <c r="AS7" s="48"/>
-      <c r="AT7" s="48"/>
-      <c r="AU7" s="48"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="50"/>
+      <c r="AL7" s="50"/>
+      <c r="AM7" s="50"/>
+      <c r="AN7" s="50"/>
+      <c r="AO7" s="50"/>
+      <c r="AP7" s="50"/>
+      <c r="AQ7" s="50"/>
+      <c r="AR7" s="50"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
       <c r="AV7" s="45" t="s">
         <v>20</v>
       </c>
@@ -13300,13 +13342,13 @@
       <c r="AZ7" s="45"/>
       <c r="BA7" s="45"/>
       <c r="BB7" s="45"/>
-      <c r="BC7" s="52">
+      <c r="BC7" s="51">
         <v>200</v>
       </c>
-      <c r="BD7" s="52"/>
-      <c r="BE7" s="52"/>
+      <c r="BD7" s="51"/>
+      <c r="BE7" s="51"/>
       <c r="BF7" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BG7" s="45"/>
       <c r="BH7" s="45"/>
@@ -13336,7 +13378,7 @@
       <c r="CF7" s="45"/>
       <c r="CG7" s="45"/>
       <c r="CH7" s="45"/>
-      <c r="CI7" s="53"/>
+      <c r="CI7" s="52"/>
     </row>
     <row r="8" spans="1:1024" ht="18" customHeight="1">
       <c r="B8" s="43">
@@ -13366,31 +13408,31 @@
       <c r="V8" s="45"/>
       <c r="W8" s="45"/>
       <c r="X8" s="45"/>
-      <c r="Y8" s="59" t="s">
+      <c r="Y8" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="49"/>
-      <c r="AK8" s="49"/>
-      <c r="AL8" s="49"/>
-      <c r="AM8" s="49"/>
-      <c r="AN8" s="49"/>
-      <c r="AO8" s="49"/>
-      <c r="AP8" s="49"/>
-      <c r="AQ8" s="49"/>
-      <c r="AR8" s="49"/>
-      <c r="AS8" s="48"/>
-      <c r="AT8" s="48"/>
-      <c r="AU8" s="48"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="50"/>
+      <c r="AI8" s="50"/>
+      <c r="AJ8" s="50"/>
+      <c r="AK8" s="50"/>
+      <c r="AL8" s="50"/>
+      <c r="AM8" s="50"/>
+      <c r="AN8" s="50"/>
+      <c r="AO8" s="50"/>
+      <c r="AP8" s="50"/>
+      <c r="AQ8" s="50"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="49"/>
+      <c r="AT8" s="49"/>
+      <c r="AU8" s="49"/>
       <c r="AV8" s="45" t="s">
         <v>20</v>
       </c>
@@ -13400,13 +13442,13 @@
       <c r="AZ8" s="45"/>
       <c r="BA8" s="45"/>
       <c r="BB8" s="45"/>
-      <c r="BC8" s="52">
+      <c r="BC8" s="51">
         <v>200</v>
       </c>
-      <c r="BD8" s="52"/>
-      <c r="BE8" s="52"/>
+      <c r="BD8" s="51"/>
+      <c r="BE8" s="51"/>
       <c r="BF8" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BG8" s="45"/>
       <c r="BH8" s="45"/>
@@ -13436,7 +13478,7 @@
       <c r="CF8" s="45"/>
       <c r="CG8" s="45"/>
       <c r="CH8" s="45"/>
-      <c r="CI8" s="53"/>
+      <c r="CI8" s="52"/>
     </row>
     <row r="9" spans="1:1024" ht="18" customHeight="1">
       <c r="B9" s="43">
@@ -13466,31 +13508,31 @@
       <c r="V9" s="45"/>
       <c r="W9" s="45"/>
       <c r="X9" s="45"/>
-      <c r="Y9" s="59" t="s">
+      <c r="Y9" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="49"/>
-      <c r="AH9" s="49"/>
-      <c r="AI9" s="49"/>
-      <c r="AJ9" s="49"/>
-      <c r="AK9" s="49"/>
-      <c r="AL9" s="49"/>
-      <c r="AM9" s="49"/>
-      <c r="AN9" s="49"/>
-      <c r="AO9" s="49"/>
-      <c r="AP9" s="49"/>
-      <c r="AQ9" s="49"/>
-      <c r="AR9" s="49"/>
-      <c r="AS9" s="48"/>
-      <c r="AT9" s="48"/>
-      <c r="AU9" s="48"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="50"/>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="50"/>
+      <c r="AN9" s="50"/>
+      <c r="AO9" s="50"/>
+      <c r="AP9" s="50"/>
+      <c r="AQ9" s="50"/>
+      <c r="AR9" s="50"/>
+      <c r="AS9" s="49"/>
+      <c r="AT9" s="49"/>
+      <c r="AU9" s="49"/>
       <c r="AV9" s="45" t="s">
         <v>20</v>
       </c>
@@ -13500,13 +13542,13 @@
       <c r="AZ9" s="45"/>
       <c r="BA9" s="45"/>
       <c r="BB9" s="45"/>
-      <c r="BC9" s="52">
+      <c r="BC9" s="51">
         <v>200</v>
       </c>
-      <c r="BD9" s="52"/>
-      <c r="BE9" s="52"/>
+      <c r="BD9" s="51"/>
+      <c r="BE9" s="51"/>
       <c r="BF9" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BG9" s="45"/>
       <c r="BH9" s="45"/>
@@ -13536,7 +13578,7 @@
       <c r="CF9" s="45"/>
       <c r="CG9" s="45"/>
       <c r="CH9" s="45"/>
-      <c r="CI9" s="53"/>
+      <c r="CI9" s="52"/>
     </row>
     <row r="10" spans="1:1024" ht="18" customHeight="1">
       <c r="B10" s="43">
@@ -13566,31 +13608,31 @@
       <c r="V10" s="45"/>
       <c r="W10" s="45"/>
       <c r="X10" s="45"/>
-      <c r="Y10" s="59" t="s">
+      <c r="Y10" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="49"/>
-      <c r="AK10" s="49"/>
-      <c r="AL10" s="49"/>
-      <c r="AM10" s="49"/>
-      <c r="AN10" s="49"/>
-      <c r="AO10" s="49"/>
-      <c r="AP10" s="49"/>
-      <c r="AQ10" s="49"/>
-      <c r="AR10" s="49"/>
-      <c r="AS10" s="48"/>
-      <c r="AT10" s="48"/>
-      <c r="AU10" s="48"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="50"/>
+      <c r="AN10" s="50"/>
+      <c r="AO10" s="50"/>
+      <c r="AP10" s="50"/>
+      <c r="AQ10" s="50"/>
+      <c r="AR10" s="50"/>
+      <c r="AS10" s="49"/>
+      <c r="AT10" s="49"/>
+      <c r="AU10" s="49"/>
       <c r="AV10" s="45" t="s">
         <v>20</v>
       </c>
@@ -13600,13 +13642,13 @@
       <c r="AZ10" s="45"/>
       <c r="BA10" s="45"/>
       <c r="BB10" s="45"/>
-      <c r="BC10" s="52">
+      <c r="BC10" s="51">
         <v>200</v>
       </c>
-      <c r="BD10" s="52"/>
-      <c r="BE10" s="52"/>
+      <c r="BD10" s="51"/>
+      <c r="BE10" s="51"/>
       <c r="BF10" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BG10" s="45"/>
       <c r="BH10" s="45"/>
@@ -13636,7 +13678,7 @@
       <c r="CF10" s="45"/>
       <c r="CG10" s="45"/>
       <c r="CH10" s="45"/>
-      <c r="CI10" s="53"/>
+      <c r="CI10" s="52"/>
     </row>
     <row r="11" spans="1:1024" ht="18" customHeight="1">
       <c r="B11" s="43">
@@ -13666,7 +13708,7 @@
       <c r="V11" s="45"/>
       <c r="W11" s="45"/>
       <c r="X11" s="45"/>
-      <c r="Y11" s="60" t="s">
+      <c r="Y11" s="63" t="s">
         <v>44</v>
       </c>
       <c r="Z11" s="45"/>
@@ -13688,9 +13730,9 @@
       <c r="AP11" s="45"/>
       <c r="AQ11" s="45"/>
       <c r="AR11" s="45"/>
-      <c r="AS11" s="48"/>
-      <c r="AT11" s="48"/>
-      <c r="AU11" s="48"/>
+      <c r="AS11" s="49"/>
+      <c r="AT11" s="49"/>
+      <c r="AU11" s="49"/>
       <c r="AV11" s="45" t="s">
         <v>20</v>
       </c>
@@ -13700,13 +13742,13 @@
       <c r="AZ11" s="45"/>
       <c r="BA11" s="45"/>
       <c r="BB11" s="45"/>
-      <c r="BC11" s="52">
+      <c r="BC11" s="51">
         <v>10</v>
       </c>
-      <c r="BD11" s="52"/>
-      <c r="BE11" s="52"/>
+      <c r="BD11" s="51"/>
+      <c r="BE11" s="51"/>
       <c r="BF11" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BG11" s="45"/>
       <c r="BH11" s="45"/>
@@ -13736,7 +13778,7 @@
       <c r="CF11" s="45"/>
       <c r="CG11" s="45"/>
       <c r="CH11" s="45"/>
-      <c r="CI11" s="53"/>
+      <c r="CI11" s="52"/>
     </row>
     <row r="12" spans="1:1024" ht="18" customHeight="1">
       <c r="B12" s="43">
@@ -13784,9 +13826,9 @@
       <c r="AP12" s="45"/>
       <c r="AQ12" s="45"/>
       <c r="AR12" s="45"/>
-      <c r="AS12" s="48"/>
-      <c r="AT12" s="48"/>
-      <c r="AU12" s="48"/>
+      <c r="AS12" s="49"/>
+      <c r="AT12" s="49"/>
+      <c r="AU12" s="49"/>
       <c r="AV12" s="45"/>
       <c r="AW12" s="45"/>
       <c r="AX12" s="45"/>
@@ -13794,9 +13836,9 @@
       <c r="AZ12" s="45"/>
       <c r="BA12" s="45"/>
       <c r="BB12" s="45"/>
-      <c r="BC12" s="52"/>
-      <c r="BD12" s="52"/>
-      <c r="BE12" s="52"/>
+      <c r="BC12" s="51"/>
+      <c r="BD12" s="51"/>
+      <c r="BE12" s="51"/>
       <c r="BF12" s="45"/>
       <c r="BG12" s="45"/>
       <c r="BH12" s="45"/>
@@ -13826,7 +13868,7 @@
       <c r="CF12" s="45"/>
       <c r="CG12" s="45"/>
       <c r="CH12" s="45"/>
-      <c r="CI12" s="53"/>
+      <c r="CI12" s="52"/>
     </row>
     <row r="13" spans="1:1024" ht="18" customHeight="1">
       <c r="B13" s="43">
@@ -13874,9 +13916,9 @@
       <c r="AP13" s="45"/>
       <c r="AQ13" s="45"/>
       <c r="AR13" s="45"/>
-      <c r="AS13" s="48"/>
-      <c r="AT13" s="48"/>
-      <c r="AU13" s="48"/>
+      <c r="AS13" s="49"/>
+      <c r="AT13" s="49"/>
+      <c r="AU13" s="49"/>
       <c r="AV13" s="45"/>
       <c r="AW13" s="45"/>
       <c r="AX13" s="45"/>
@@ -13884,9 +13926,9 @@
       <c r="AZ13" s="45"/>
       <c r="BA13" s="45"/>
       <c r="BB13" s="45"/>
-      <c r="BC13" s="52"/>
-      <c r="BD13" s="52"/>
-      <c r="BE13" s="52"/>
+      <c r="BC13" s="51"/>
+      <c r="BD13" s="51"/>
+      <c r="BE13" s="51"/>
       <c r="BF13" s="45"/>
       <c r="BG13" s="45"/>
       <c r="BH13" s="45"/>
@@ -13916,7 +13958,7 @@
       <c r="CF13" s="45"/>
       <c r="CG13" s="45"/>
       <c r="CH13" s="45"/>
-      <c r="CI13" s="53"/>
+      <c r="CI13" s="52"/>
     </row>
     <row r="14" spans="1:1024" ht="18" customHeight="1">
       <c r="B14" s="43">
@@ -13964,9 +14006,9 @@
       <c r="AP14" s="45"/>
       <c r="AQ14" s="45"/>
       <c r="AR14" s="45"/>
-      <c r="AS14" s="48"/>
-      <c r="AT14" s="48"/>
-      <c r="AU14" s="48"/>
+      <c r="AS14" s="49"/>
+      <c r="AT14" s="49"/>
+      <c r="AU14" s="49"/>
       <c r="AV14" s="45"/>
       <c r="AW14" s="45"/>
       <c r="AX14" s="45"/>
@@ -13974,9 +14016,9 @@
       <c r="AZ14" s="45"/>
       <c r="BA14" s="45"/>
       <c r="BB14" s="45"/>
-      <c r="BC14" s="52"/>
-      <c r="BD14" s="52"/>
-      <c r="BE14" s="52"/>
+      <c r="BC14" s="51"/>
+      <c r="BD14" s="51"/>
+      <c r="BE14" s="51"/>
       <c r="BF14" s="45"/>
       <c r="BG14" s="45"/>
       <c r="BH14" s="45"/>
@@ -14006,7 +14048,7 @@
       <c r="CF14" s="45"/>
       <c r="CG14" s="45"/>
       <c r="CH14" s="45"/>
-      <c r="CI14" s="53"/>
+      <c r="CI14" s="52"/>
     </row>
     <row r="15" spans="1:1024" ht="18" customHeight="1">
       <c r="B15" s="43">
@@ -14054,9 +14096,9 @@
       <c r="AP15" s="45"/>
       <c r="AQ15" s="45"/>
       <c r="AR15" s="45"/>
-      <c r="AS15" s="48"/>
-      <c r="AT15" s="48"/>
-      <c r="AU15" s="48"/>
+      <c r="AS15" s="49"/>
+      <c r="AT15" s="49"/>
+      <c r="AU15" s="49"/>
       <c r="AV15" s="45"/>
       <c r="AW15" s="45"/>
       <c r="AX15" s="45"/>
@@ -14064,9 +14106,9 @@
       <c r="AZ15" s="45"/>
       <c r="BA15" s="45"/>
       <c r="BB15" s="45"/>
-      <c r="BC15" s="52"/>
-      <c r="BD15" s="52"/>
-      <c r="BE15" s="52"/>
+      <c r="BC15" s="51"/>
+      <c r="BD15" s="51"/>
+      <c r="BE15" s="51"/>
       <c r="BF15" s="45"/>
       <c r="BG15" s="45"/>
       <c r="BH15" s="45"/>
@@ -14096,7 +14138,7 @@
       <c r="CF15" s="45"/>
       <c r="CG15" s="45"/>
       <c r="CH15" s="45"/>
-      <c r="CI15" s="53"/>
+      <c r="CI15" s="52"/>
     </row>
     <row r="16" spans="1:1024" ht="18" customHeight="1">
       <c r="B16" s="43">
@@ -14144,9 +14186,9 @@
       <c r="AP16" s="45"/>
       <c r="AQ16" s="45"/>
       <c r="AR16" s="45"/>
-      <c r="AS16" s="48"/>
-      <c r="AT16" s="48"/>
-      <c r="AU16" s="48"/>
+      <c r="AS16" s="49"/>
+      <c r="AT16" s="49"/>
+      <c r="AU16" s="49"/>
       <c r="AV16" s="45"/>
       <c r="AW16" s="45"/>
       <c r="AX16" s="45"/>
@@ -14154,9 +14196,9 @@
       <c r="AZ16" s="45"/>
       <c r="BA16" s="45"/>
       <c r="BB16" s="45"/>
-      <c r="BC16" s="52"/>
-      <c r="BD16" s="52"/>
-      <c r="BE16" s="52"/>
+      <c r="BC16" s="51"/>
+      <c r="BD16" s="51"/>
+      <c r="BE16" s="51"/>
       <c r="BF16" s="45"/>
       <c r="BG16" s="45"/>
       <c r="BH16" s="45"/>
@@ -14186,7 +14228,7 @@
       <c r="CF16" s="45"/>
       <c r="CG16" s="45"/>
       <c r="CH16" s="45"/>
-      <c r="CI16" s="53"/>
+      <c r="CI16" s="52"/>
     </row>
     <row r="17" spans="2:87" ht="18" customHeight="1">
       <c r="B17" s="43">
@@ -14234,9 +14276,9 @@
       <c r="AP17" s="45"/>
       <c r="AQ17" s="45"/>
       <c r="AR17" s="45"/>
-      <c r="AS17" s="48"/>
-      <c r="AT17" s="48"/>
-      <c r="AU17" s="48"/>
+      <c r="AS17" s="49"/>
+      <c r="AT17" s="49"/>
+      <c r="AU17" s="49"/>
       <c r="AV17" s="45"/>
       <c r="AW17" s="45"/>
       <c r="AX17" s="45"/>
@@ -14244,9 +14286,9 @@
       <c r="AZ17" s="45"/>
       <c r="BA17" s="45"/>
       <c r="BB17" s="45"/>
-      <c r="BC17" s="52"/>
-      <c r="BD17" s="52"/>
-      <c r="BE17" s="52"/>
+      <c r="BC17" s="51"/>
+      <c r="BD17" s="51"/>
+      <c r="BE17" s="51"/>
       <c r="BF17" s="45"/>
       <c r="BG17" s="45"/>
       <c r="BH17" s="45"/>
@@ -14276,7 +14318,7 @@
       <c r="CF17" s="45"/>
       <c r="CG17" s="45"/>
       <c r="CH17" s="45"/>
-      <c r="CI17" s="53"/>
+      <c r="CI17" s="52"/>
     </row>
     <row r="18" spans="2:87" ht="18" customHeight="1">
       <c r="B18" s="43">
@@ -14324,9 +14366,9 @@
       <c r="AP18" s="45"/>
       <c r="AQ18" s="45"/>
       <c r="AR18" s="45"/>
-      <c r="AS18" s="48"/>
-      <c r="AT18" s="48"/>
-      <c r="AU18" s="48"/>
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="49"/>
+      <c r="AU18" s="49"/>
       <c r="AV18" s="45"/>
       <c r="AW18" s="45"/>
       <c r="AX18" s="45"/>
@@ -14334,9 +14376,9 @@
       <c r="AZ18" s="45"/>
       <c r="BA18" s="45"/>
       <c r="BB18" s="45"/>
-      <c r="BC18" s="52"/>
-      <c r="BD18" s="52"/>
-      <c r="BE18" s="52"/>
+      <c r="BC18" s="51"/>
+      <c r="BD18" s="51"/>
+      <c r="BE18" s="51"/>
       <c r="BF18" s="45"/>
       <c r="BG18" s="45"/>
       <c r="BH18" s="45"/>
@@ -14366,7 +14408,7 @@
       <c r="CF18" s="45"/>
       <c r="CG18" s="45"/>
       <c r="CH18" s="45"/>
-      <c r="CI18" s="53"/>
+      <c r="CI18" s="52"/>
     </row>
     <row r="19" spans="2:87" ht="18" customHeight="1">
       <c r="B19" s="43">
@@ -14414,9 +14456,9 @@
       <c r="AP19" s="45"/>
       <c r="AQ19" s="45"/>
       <c r="AR19" s="45"/>
-      <c r="AS19" s="48"/>
-      <c r="AT19" s="48"/>
-      <c r="AU19" s="48"/>
+      <c r="AS19" s="49"/>
+      <c r="AT19" s="49"/>
+      <c r="AU19" s="49"/>
       <c r="AV19" s="45"/>
       <c r="AW19" s="45"/>
       <c r="AX19" s="45"/>
@@ -14424,9 +14466,9 @@
       <c r="AZ19" s="45"/>
       <c r="BA19" s="45"/>
       <c r="BB19" s="45"/>
-      <c r="BC19" s="52"/>
-      <c r="BD19" s="52"/>
-      <c r="BE19" s="52"/>
+      <c r="BC19" s="51"/>
+      <c r="BD19" s="51"/>
+      <c r="BE19" s="51"/>
       <c r="BF19" s="45"/>
       <c r="BG19" s="45"/>
       <c r="BH19" s="45"/>
@@ -14456,7 +14498,7 @@
       <c r="CF19" s="45"/>
       <c r="CG19" s="45"/>
       <c r="CH19" s="45"/>
-      <c r="CI19" s="53"/>
+      <c r="CI19" s="52"/>
     </row>
     <row r="20" spans="2:87" ht="18" customHeight="1">
       <c r="B20" s="43">
@@ -14504,9 +14546,9 @@
       <c r="AP20" s="45"/>
       <c r="AQ20" s="45"/>
       <c r="AR20" s="45"/>
-      <c r="AS20" s="48"/>
-      <c r="AT20" s="48"/>
-      <c r="AU20" s="48"/>
+      <c r="AS20" s="49"/>
+      <c r="AT20" s="49"/>
+      <c r="AU20" s="49"/>
       <c r="AV20" s="45"/>
       <c r="AW20" s="45"/>
       <c r="AX20" s="45"/>
@@ -14514,9 +14556,9 @@
       <c r="AZ20" s="45"/>
       <c r="BA20" s="45"/>
       <c r="BB20" s="45"/>
-      <c r="BC20" s="52"/>
-      <c r="BD20" s="52"/>
-      <c r="BE20" s="52"/>
+      <c r="BC20" s="51"/>
+      <c r="BD20" s="51"/>
+      <c r="BE20" s="51"/>
       <c r="BF20" s="45"/>
       <c r="BG20" s="45"/>
       <c r="BH20" s="45"/>
@@ -14546,7 +14588,7 @@
       <c r="CF20" s="45"/>
       <c r="CG20" s="45"/>
       <c r="CH20" s="45"/>
-      <c r="CI20" s="53"/>
+      <c r="CI20" s="52"/>
     </row>
     <row r="21" spans="2:87" ht="18" customHeight="1">
       <c r="B21" s="43">
@@ -14594,9 +14636,9 @@
       <c r="AP21" s="45"/>
       <c r="AQ21" s="45"/>
       <c r="AR21" s="45"/>
-      <c r="AS21" s="48"/>
-      <c r="AT21" s="48"/>
-      <c r="AU21" s="48"/>
+      <c r="AS21" s="49"/>
+      <c r="AT21" s="49"/>
+      <c r="AU21" s="49"/>
       <c r="AV21" s="45"/>
       <c r="AW21" s="45"/>
       <c r="AX21" s="45"/>
@@ -14604,9 +14646,9 @@
       <c r="AZ21" s="45"/>
       <c r="BA21" s="45"/>
       <c r="BB21" s="45"/>
-      <c r="BC21" s="52"/>
-      <c r="BD21" s="52"/>
-      <c r="BE21" s="52"/>
+      <c r="BC21" s="51"/>
+      <c r="BD21" s="51"/>
+      <c r="BE21" s="51"/>
       <c r="BF21" s="45"/>
       <c r="BG21" s="45"/>
       <c r="BH21" s="45"/>
@@ -14636,7 +14678,7 @@
       <c r="CF21" s="45"/>
       <c r="CG21" s="45"/>
       <c r="CH21" s="45"/>
-      <c r="CI21" s="53"/>
+      <c r="CI21" s="52"/>
     </row>
     <row r="22" spans="2:87" ht="18" customHeight="1">
       <c r="B22" s="43">
@@ -14684,9 +14726,9 @@
       <c r="AP22" s="45"/>
       <c r="AQ22" s="45"/>
       <c r="AR22" s="45"/>
-      <c r="AS22" s="48"/>
-      <c r="AT22" s="48"/>
-      <c r="AU22" s="48"/>
+      <c r="AS22" s="49"/>
+      <c r="AT22" s="49"/>
+      <c r="AU22" s="49"/>
       <c r="AV22" s="45"/>
       <c r="AW22" s="45"/>
       <c r="AX22" s="45"/>
@@ -14694,9 +14736,9 @@
       <c r="AZ22" s="45"/>
       <c r="BA22" s="45"/>
       <c r="BB22" s="45"/>
-      <c r="BC22" s="52"/>
-      <c r="BD22" s="52"/>
-      <c r="BE22" s="52"/>
+      <c r="BC22" s="51"/>
+      <c r="BD22" s="51"/>
+      <c r="BE22" s="51"/>
       <c r="BF22" s="45"/>
       <c r="BG22" s="45"/>
       <c r="BH22" s="45"/>
@@ -14726,7 +14768,7 @@
       <c r="CF22" s="45"/>
       <c r="CG22" s="45"/>
       <c r="CH22" s="45"/>
-      <c r="CI22" s="53"/>
+      <c r="CI22" s="52"/>
     </row>
     <row r="23" spans="2:87" ht="18" customHeight="1">
       <c r="B23" s="43">
@@ -14774,9 +14816,9 @@
       <c r="AP23" s="45"/>
       <c r="AQ23" s="45"/>
       <c r="AR23" s="45"/>
-      <c r="AS23" s="48"/>
-      <c r="AT23" s="48"/>
-      <c r="AU23" s="48"/>
+      <c r="AS23" s="49"/>
+      <c r="AT23" s="49"/>
+      <c r="AU23" s="49"/>
       <c r="AV23" s="45"/>
       <c r="AW23" s="45"/>
       <c r="AX23" s="45"/>
@@ -14784,9 +14826,9 @@
       <c r="AZ23" s="45"/>
       <c r="BA23" s="45"/>
       <c r="BB23" s="45"/>
-      <c r="BC23" s="52"/>
-      <c r="BD23" s="52"/>
-      <c r="BE23" s="52"/>
+      <c r="BC23" s="51"/>
+      <c r="BD23" s="51"/>
+      <c r="BE23" s="51"/>
       <c r="BF23" s="45"/>
       <c r="BG23" s="45"/>
       <c r="BH23" s="45"/>
@@ -14816,97 +14858,97 @@
       <c r="CF23" s="45"/>
       <c r="CG23" s="45"/>
       <c r="CH23" s="45"/>
-      <c r="CI23" s="53"/>
+      <c r="CI23" s="52"/>
     </row>
     <row r="24" spans="2:87" ht="18" customHeight="1" thickBot="1">
-      <c r="B24" s="61">
+      <c r="B24" s="64">
         <v>20</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="56"/>
-      <c r="AF24" s="56"/>
-      <c r="AG24" s="56"/>
-      <c r="AH24" s="56"/>
-      <c r="AI24" s="56"/>
-      <c r="AJ24" s="56"/>
-      <c r="AK24" s="56"/>
-      <c r="AL24" s="56"/>
-      <c r="AM24" s="56"/>
-      <c r="AN24" s="56"/>
-      <c r="AO24" s="56"/>
-      <c r="AP24" s="56"/>
-      <c r="AQ24" s="56"/>
-      <c r="AR24" s="56"/>
-      <c r="AS24" s="55"/>
-      <c r="AT24" s="55"/>
-      <c r="AU24" s="55"/>
-      <c r="AV24" s="56"/>
-      <c r="AW24" s="56"/>
-      <c r="AX24" s="56"/>
-      <c r="AY24" s="56"/>
-      <c r="AZ24" s="56"/>
-      <c r="BA24" s="56"/>
-      <c r="BB24" s="56"/>
-      <c r="BC24" s="57"/>
-      <c r="BD24" s="57"/>
-      <c r="BE24" s="57"/>
-      <c r="BF24" s="56"/>
-      <c r="BG24" s="56"/>
-      <c r="BH24" s="56"/>
-      <c r="BI24" s="56"/>
-      <c r="BJ24" s="56"/>
-      <c r="BK24" s="56"/>
-      <c r="BL24" s="56"/>
-      <c r="BM24" s="56"/>
-      <c r="BN24" s="56"/>
-      <c r="BO24" s="56"/>
-      <c r="BP24" s="56"/>
-      <c r="BQ24" s="56"/>
-      <c r="BR24" s="56"/>
-      <c r="BS24" s="56"/>
-      <c r="BT24" s="56"/>
-      <c r="BU24" s="56"/>
-      <c r="BV24" s="56"/>
-      <c r="BW24" s="56"/>
-      <c r="BX24" s="56"/>
-      <c r="BY24" s="56"/>
-      <c r="BZ24" s="56"/>
-      <c r="CA24" s="56"/>
-      <c r="CB24" s="56"/>
-      <c r="CC24" s="56"/>
-      <c r="CD24" s="56"/>
-      <c r="CE24" s="56"/>
-      <c r="CF24" s="56"/>
-      <c r="CG24" s="56"/>
-      <c r="CH24" s="56"/>
-      <c r="CI24" s="58"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="59"/>
+      <c r="AH24" s="59"/>
+      <c r="AI24" s="59"/>
+      <c r="AJ24" s="59"/>
+      <c r="AK24" s="59"/>
+      <c r="AL24" s="59"/>
+      <c r="AM24" s="59"/>
+      <c r="AN24" s="59"/>
+      <c r="AO24" s="59"/>
+      <c r="AP24" s="59"/>
+      <c r="AQ24" s="59"/>
+      <c r="AR24" s="59"/>
+      <c r="AS24" s="58"/>
+      <c r="AT24" s="58"/>
+      <c r="AU24" s="58"/>
+      <c r="AV24" s="59"/>
+      <c r="AW24" s="59"/>
+      <c r="AX24" s="59"/>
+      <c r="AY24" s="59"/>
+      <c r="AZ24" s="59"/>
+      <c r="BA24" s="59"/>
+      <c r="BB24" s="59"/>
+      <c r="BC24" s="60"/>
+      <c r="BD24" s="60"/>
+      <c r="BE24" s="60"/>
+      <c r="BF24" s="59"/>
+      <c r="BG24" s="59"/>
+      <c r="BH24" s="59"/>
+      <c r="BI24" s="59"/>
+      <c r="BJ24" s="59"/>
+      <c r="BK24" s="59"/>
+      <c r="BL24" s="59"/>
+      <c r="BM24" s="59"/>
+      <c r="BN24" s="59"/>
+      <c r="BO24" s="59"/>
+      <c r="BP24" s="59"/>
+      <c r="BQ24" s="59"/>
+      <c r="BR24" s="59"/>
+      <c r="BS24" s="59"/>
+      <c r="BT24" s="59"/>
+      <c r="BU24" s="59"/>
+      <c r="BV24" s="59"/>
+      <c r="BW24" s="59"/>
+      <c r="BX24" s="59"/>
+      <c r="BY24" s="59"/>
+      <c r="BZ24" s="59"/>
+      <c r="CA24" s="59"/>
+      <c r="CB24" s="59"/>
+      <c r="CC24" s="59"/>
+      <c r="CD24" s="59"/>
+      <c r="CE24" s="59"/>
+      <c r="CF24" s="59"/>
+      <c r="CG24" s="59"/>
+      <c r="CH24" s="59"/>
+      <c r="CI24" s="61"/>
     </row>
     <row r="25" spans="2:87" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B25" s="33" t="s">

--- a/YSteam開発資料まとめ/設計書9日までに/products/DB設計書_ヨウグン.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/DB設計書_ヨウグン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF487BA5-D390-43C4-9BB5-8013B8E1AE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD1BC83-0908-4DE5-9C21-595C9617F2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2028" windowWidth="18636" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.テーブル一覧" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>システム名</t>
   </si>
@@ -274,19 +274,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>問題のID（例え第一問：1）</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>タト</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ダイイチモン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ユーザー登録するとき入力したID</t>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
@@ -298,20 +285,6 @@
   </si>
   <si>
     <t>rightResult</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>陽　</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　陽</t>
-    <rPh sb="1" eb="2">
-      <t>ヨウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -393,8 +366,48 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>最高挑戦スコア記録</t>
+    <rPh sb="0" eb="4">
+      <t>サイコウチョウセン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー最高の採点記録</t>
+    <rPh sb="4" eb="6">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user_highestScore</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題のID（例：第一問は1等）</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ダイイチモン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
-      <t>この問題にする正答、どの選択肢が正答（例え：A、</t>
+      <t>この問題にする正答、どの選択肢が正答か（例：A、</t>
     </r>
     <r>
       <rPr>
@@ -426,33 +439,16 @@
     <rPh sb="16" eb="18">
       <t>セイトウ</t>
     </rPh>
-    <rPh sb="19" eb="20">
+    <rPh sb="20" eb="21">
       <t>タト</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>最高挑戦スコア記録</t>
-    <rPh sb="0" eb="4">
-      <t>サイコウチョウセン</t>
+    <t>陽</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
     </rPh>
-    <rPh sb="7" eb="9">
-      <t>キロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザー最高の採点記録</t>
-    <rPh sb="4" eb="6">
-      <t>サイコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サイテン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>user_highestScore</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1452,7 +1448,7 @@
   <dimension ref="A1:AMK29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS8" sqref="AS8:CI8"/>
+      <selection activeCell="BP2" sqref="BP2:BW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1540,7 +1536,7 @@
       <c r="BN1" s="31"/>
       <c r="BO1" s="31"/>
       <c r="BP1" s="32" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="BQ1" s="32"/>
       <c r="BR1" s="32"/>
@@ -3870,7 +3866,7 @@
       <c r="AQ6" s="37"/>
       <c r="AR6" s="37"/>
       <c r="AS6" s="38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AT6" s="38"/>
       <c r="AU6" s="38"/>
@@ -6087,8 +6083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7:AR7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BP2" sqref="BP2:BW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -6176,7 +6172,7 @@
       <c r="BN1" s="31"/>
       <c r="BO1" s="31"/>
       <c r="BP1" s="32" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="BQ1" s="32"/>
       <c r="BR1" s="32"/>
@@ -8372,7 +8368,7 @@
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
       <c r="E5" s="45" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="45"/>
@@ -8394,7 +8390,7 @@
       <c r="W5" s="45"/>
       <c r="X5" s="45"/>
       <c r="Y5" s="46" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Z5" s="45"/>
       <c r="AA5" s="45"/>
@@ -8435,7 +8431,7 @@
       <c r="BD5" s="51"/>
       <c r="BE5" s="51"/>
       <c r="BF5" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BG5" s="45"/>
       <c r="BH5" s="45"/>
@@ -8474,7 +8470,7 @@
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
       <c r="E6" s="45" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="45"/>
@@ -8496,7 +8492,7 @@
       <c r="W6" s="45"/>
       <c r="X6" s="45"/>
       <c r="Y6" s="50" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Z6" s="50"/>
       <c r="AA6" s="50"/>
@@ -8535,7 +8531,7 @@
       <c r="BD6" s="53"/>
       <c r="BE6" s="53"/>
       <c r="BF6" s="45" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="BG6" s="45"/>
       <c r="BH6" s="45"/>
@@ -10799,8 +10795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716128AF-9BA8-4789-ACAB-31522F27DB4A}">
   <dimension ref="A1:AMK30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11:AR11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BP2" sqref="BP2:BW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -10889,7 +10885,7 @@
       <c r="BN1" s="31"/>
       <c r="BO1" s="31"/>
       <c r="BP1" s="32" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="BQ1" s="32"/>
       <c r="BR1" s="32"/>
@@ -13148,7 +13144,7 @@
       <c r="BD5" s="51"/>
       <c r="BE5" s="51"/>
       <c r="BF5" s="45" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="BG5" s="45"/>
       <c r="BH5" s="45"/>
@@ -13348,7 +13344,7 @@
       <c r="BD7" s="51"/>
       <c r="BE7" s="51"/>
       <c r="BF7" s="45" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="BG7" s="45"/>
       <c r="BH7" s="45"/>
@@ -13448,7 +13444,7 @@
       <c r="BD8" s="51"/>
       <c r="BE8" s="51"/>
       <c r="BF8" s="45" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="BG8" s="45"/>
       <c r="BH8" s="45"/>
@@ -13548,7 +13544,7 @@
       <c r="BD9" s="51"/>
       <c r="BE9" s="51"/>
       <c r="BF9" s="45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BG9" s="45"/>
       <c r="BH9" s="45"/>
@@ -13648,7 +13644,7 @@
       <c r="BD10" s="51"/>
       <c r="BE10" s="51"/>
       <c r="BF10" s="45" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="BG10" s="45"/>
       <c r="BH10" s="45"/>
@@ -13709,7 +13705,7 @@
       <c r="W11" s="45"/>
       <c r="X11" s="45"/>
       <c r="Y11" s="63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z11" s="45"/>
       <c r="AA11" s="45"/>
@@ -13748,7 +13744,7 @@
       <c r="BD11" s="51"/>
       <c r="BE11" s="51"/>
       <c r="BF11" s="45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BG11" s="45"/>
       <c r="BH11" s="45"/>
